--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_232.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_232.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08070301291248207</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.53, 66.23)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:02.860000', '0:00:05.300000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_171</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1281818181818182</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D'], ['D/5', 'A/3', 'D']]</t>
+          <t>[['Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(29.888683, 33.836075), (32.233898, 36.959159)]</t>
+          <t>[['E', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.8617, 16.701519), (21.740249, 26.767369)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.720000', '0:00:06.880000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:12.263975', '0:00:17.488465')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2318840579710145</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.62, 45.66), (41.46, 45.06)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.84, 12.58), (9.24, 11.88)]</t>
+          <t>[('0:00:19.140000', '0:00:21.620000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:06.980000', '0:00:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1770833333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>[['D/3', 'G', 'D']]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[(4.155032, 7.525011)]</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1720779220779221</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05330188679245283</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
+          <t>[['A#', 'A#/F', 'F:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01)]</t>
+          <t>[('0:00:28.190000', '0:00:36.120000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:04:29.700000', '0:04:32.540000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.02992424242424242</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min7', 'G:7', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F', 'F']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.26, 14.36)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(20.73, 24.83)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09810333551340746</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'D:min7', 'G:min7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:min7', 'C:min7', 'F:7']]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.832, 43.027)]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.8, 3.4)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:06.900000', '0:00:11.120000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1253561253561253</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min', 'F#:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.75</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min', 'D:maj/A']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.296348, 46.066507)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(26.2, 35.78)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09018567639257294</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(19.48, 25.86), (9.14, 16.92)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.100468, 51.657021)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.076103500761035</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'G'], ['D', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db'], ['Ab', 'Ab', 'Db']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(28.197, 33.046), (8.399, 12.648)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(131.61, 134.27), (123.03, 126.19)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1967592592592592</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C/5', 'G'], ['C:maj', 'G', 'C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.182426, 68.064058), (57.406099, 66.310952)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.15, 7.605), (23.647, 28.197)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.04, 22.58)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(60.12, 63.42)]</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_133</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(63.24, 64.62), (63.84, 66.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.6, 11.26), (31.14, 41.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
